--- a/schedule/mixer/renault.xlsx
+++ b/schedule/mixer/renault.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\concrete_maintenance_app\schedule\mixer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E17E9D-4395-4DAD-9678-727090BF5A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05208F81-7C64-43D6-A5CA-85EDC4043259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="5" xr2:uid="{DCA88B7A-8C51-4207-A6C9-46D35CE97724}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DCA88B7A-8C51-4207-A6C9-46D35CE97724}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily (Per Shift)" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly" sheetId="2" r:id="rId2"/>
-    <sheet name="Every 250 Operating Hours (~Mon" sheetId="3" r:id="rId3"/>
-    <sheet name="Every 500 Operating Hours (~3 M" sheetId="4" r:id="rId4"/>
-    <sheet name="Every 1000 Hours   1 Year (~40," sheetId="5" r:id="rId5"/>
+    <sheet name="Every 250 Op hrs (monthly)" sheetId="3" r:id="rId3"/>
+    <sheet name="Every 500 Op hrs (3 months)" sheetId="4" r:id="rId4"/>
+    <sheet name="Every 1000 op hrs (1 Annually) " sheetId="5" r:id="rId5"/>
     <sheet name="maintenance_log" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Check engine oil level (dipstick or electronic readout)</t>
   </si>
@@ -221,6 +221,87 @@
   </si>
   <si>
     <t>Mixer drum: Bleed the moisture out of the air tanks by opening the petcocks located on the bottom of the air tanks. (if there is a chance that the moisture will freeze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIXER DRUM: </t>
+  </si>
+  <si>
+    <t>Check drum for concrete build-up: Clean any leftover mix after each use</t>
+  </si>
+  <si>
+    <t>Inspect charging and discharging hoppers: Ensure no blockages or cracks</t>
+  </si>
+  <si>
+    <t>Check drum rotation (smooth and consistent): Listen for abnormal noises</t>
+  </si>
+  <si>
+    <t>Verify water tank level: Sufficient for drum washing</t>
+  </si>
+  <si>
+    <t>Check chute condition and movement: No cracks or deformations</t>
+  </si>
+  <si>
+    <t>Look for hydraulic leaks near drum motor and lines: Report if found</t>
+  </si>
+  <si>
+    <t>Ensure drum cover is in place: Prevents concrete splashing during transport</t>
+  </si>
+  <si>
+    <t>Inspect drum blades (mixing fins): Look for wear, cracks, or loosening</t>
+  </si>
+  <si>
+    <t>Check drum shell for dents or cracks: Especially near welds and seams</t>
+  </si>
+  <si>
+    <t>Inspect drum ring gear &amp; drive pinion: Clean and visually check for damage or misalignment</t>
+  </si>
+  <si>
+    <t>Check drum lock mechanism (if present): Should engage securely</t>
+  </si>
+  <si>
+    <t>Inspect chute lifting mechanism: Hydraulic or mechanical—check cables, hinges, cylinders</t>
+  </si>
+  <si>
+    <t>Check drum wall thickness (if accessible): Tap test or ultrasonic check (in high-wear fleets)</t>
+  </si>
+  <si>
+    <t>Inspect drum rotation speed and drive motor performance: Confirm proper RPM and torque under load</t>
+  </si>
+  <si>
+    <t>Examine hydraulic oil level and cleanliness: Top up and change if dark or foamy</t>
+  </si>
+  <si>
+    <t>Check water spray nozzles: Ensure they’re unclogged and spraying properly</t>
+  </si>
+  <si>
+    <t>Inspect chute pivots and discharge door: Lubricate and check for misalignment or jamming</t>
+  </si>
+  <si>
+    <t>Perform detailed inspection of blade wear: Measure remaining blade height; replace if below limit</t>
+  </si>
+  <si>
+    <t>Inspect drum trunnion rollers (support rollers):  Check for flat spots or excessive play</t>
+  </si>
+  <si>
+    <t>Inspect and tighten drive coupling bolts: Drum drive to hydraulic motor</t>
+  </si>
+  <si>
+    <t>Lubricate gear teeth and roller bearings: Use appropriate high-temp grease</t>
+  </si>
+  <si>
+    <t>Perform non-destructive testing (NDT) on drum shell: Ultrasonic or visual if in high-hour units</t>
+  </si>
+  <si>
+    <t>Replace or rebuild mixing blades if needed: Based on wear percentage or volume mixed</t>
+  </si>
+  <si>
+    <t>Flush and replace hydraulic oil and filters: Ensure clean system operation</t>
+  </si>
+  <si>
+    <t>Inspect entire water system (tank, pump, piping): Flush and sanitize if needed</t>
+  </si>
+  <si>
+    <t>Repaint or treat drum exterior for corrosion: Especially important for coastal or humid areas</t>
   </si>
 </sst>
 </file>
@@ -262,9 +343,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -602,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB32040-6E1C-4862-9415-52DAB16C0B1E}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,93 +694,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17B7B4B-201B-414B-B82B-F05EBEA92CE1}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,33 +872,63 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -788,91 +938,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D41130-6F9A-4D70-BFEF-92277B2C419C}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="90.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -882,56 +1061,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A276E87-F769-4F0F-8187-803F7ABD0625}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="86.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -941,71 +1144,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56AF45F-9CCA-4988-B956-97845A2A68ED}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="82.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2BD941-BD33-4A36-B7AD-F82C3BBCC8AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
